--- a/CO2_auction_price_2020-2024.xlsx
+++ b/CO2_auction_price_2020-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\_studenti\2024 Dujakovic - Integrated batch simulation and SQL database design for big data analysis\code\utilities\CO2_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E857757-9F79-43D0-B2FF-810476FBDC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523E943E-588E-4127-AFFF-18AECDC67C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79574D1E-198D-4549-BE31-D5F91AB8BCEB}"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="16440" xr2:uid="{79574D1E-198D-4549-BE31-D5F91AB8BCEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
